--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_5.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_8_5.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1809715.395821545</v>
+        <v>-1812603.356091711</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>24.29040109555777</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>25.34588303445201</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>122.5935461816078</v>
       </c>
       <c r="Y4" t="n">
-        <v>156.1303287497573</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>143.7459688030384</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>92.47639493987826</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,13 +1063,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>18.7734042169175</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>68.16471659739285</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>132.2196733154378</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>248.1821332352683</v>
       </c>
       <c r="G8" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,16 +1291,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>143.4541304229238</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>151.4367380906166</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>35.19779014108336</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272892</v>
+        <v>211.147499124903</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>126.3436347319672</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>45.16086499484859</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>60.6471314173121</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>280.0075071306259</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>133.7457933526579</v>
+        <v>15.76045942438991</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>116.4636264596498</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2491,7 +2491,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>117.6579322793575</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2570,7 +2570,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2716,13 +2716,13 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G28" t="n">
         <v>141.2394908002291</v>
@@ -2953,7 +2953,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D31" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
         <v>122.1493151545295</v>
@@ -2968,7 +2968,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3424,25 +3424,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C37" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3478,7 +3478,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3487,7 +3487,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y37" t="n">
         <v>194.3000058600551</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1577.945354755378</v>
+        <v>1310.833184497836</v>
       </c>
       <c r="C2" t="n">
-        <v>1208.982837814967</v>
+        <v>1310.833184497836</v>
       </c>
       <c r="D2" t="n">
-        <v>850.7171392082162</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E2" t="n">
-        <v>464.928886609972</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F2" t="n">
-        <v>53.94298182036445</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2672.613332335841</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V2" t="n">
-        <v>2341.55044499227</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W2" t="n">
-        <v>2341.55044499227</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X2" t="n">
-        <v>1968.08468673119</v>
+        <v>2087.572356537769</v>
       </c>
       <c r="Y2" t="n">
-        <v>1577.945354755378</v>
+        <v>1697.433024561957</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>99.5995062532301</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>99.5995062532301</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>99.5995062532301</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>438.9553738610024</v>
+        <v>604.2971193765273</v>
       </c>
       <c r="Y4" t="n">
-        <v>281.2479710834698</v>
+        <v>383.5045402329973</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1894.539591564834</v>
+        <v>1327.013560149308</v>
       </c>
       <c r="C5" t="n">
-        <v>1894.539591564834</v>
+        <v>958.0510432088963</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>958.0510432088963</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>572.262790610652</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>565.3172898614486</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>147.3534817596354</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W5" t="n">
-        <v>1894.539591564834</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X5" t="n">
-        <v>1894.539591564834</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y5" t="n">
-        <v>1894.539591564834</v>
+        <v>1327.013560149308</v>
       </c>
     </row>
     <row r="6">
@@ -4659,10 +4659,10 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>527.5174848136515</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>358.5813018857447</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>358.5813018857447</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>358.5813018857447</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4759,16 +4759,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>709.1659496438913</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W7" t="n">
-        <v>709.1659496438913</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X7" t="n">
-        <v>709.1659496438913</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y7" t="n">
-        <v>709.1659496438913</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1759.625845149689</v>
+        <v>823.1606062116343</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.070619578539</v>
+        <v>823.1606062116343</v>
       </c>
       <c r="D8" t="n">
-        <v>1267.804920971789</v>
+        <v>823.1606062116343</v>
       </c>
       <c r="E8" t="n">
-        <v>882.0166683735445</v>
+        <v>437.3723536133901</v>
       </c>
       <c r="F8" t="n">
-        <v>471.030763583937</v>
+        <v>186.6833301434222</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>173.6359524202537</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>242.5828808341008</v>
+        <v>75.17723181374775</v>
       </c>
       <c r="K8" t="n">
-        <v>646.0499938541462</v>
+        <v>478.6443448337932</v>
       </c>
       <c r="L8" t="n">
-        <v>1094.46325341956</v>
+        <v>1031.457603079992</v>
       </c>
       <c r="M8" t="n">
-        <v>1281.162666244967</v>
+        <v>1218.1570159054</v>
       </c>
       <c r="N8" t="n">
         <v>1475.49687913695</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.457387763373</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="V8" t="n">
-        <v>2112.394500419803</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="W8" t="n">
-        <v>1759.625845149689</v>
+        <v>1973.365536512648</v>
       </c>
       <c r="X8" t="n">
-        <v>1759.625845149689</v>
+        <v>1599.899778251568</v>
       </c>
       <c r="Y8" t="n">
-        <v>1759.625845149689</v>
+        <v>1209.760446275756</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>172.6022336772601</v>
       </c>
       <c r="K9" t="n">
-        <v>121.5508014837215</v>
+        <v>502.03063798307</v>
       </c>
       <c r="L9" t="n">
-        <v>625.9123413498401</v>
+        <v>1006.392177849189</v>
       </c>
       <c r="M9" t="n">
-        <v>1266.457690816945</v>
+        <v>1185.889514203793</v>
       </c>
       <c r="N9" t="n">
-        <v>1822.094502051329</v>
+        <v>1853.433914230804</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2012.946226899564</v>
       </c>
       <c r="P9" t="n">
         <v>2405.574583200926</v>
@@ -4936,16 +4936,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>664.7889137018748</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>495.8527307739679</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>345.7360913616321</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -4987,25 +4987,25 @@
         <v>1053.877663279709</v>
       </c>
       <c r="S10" t="n">
-        <v>900.9112611679752</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="T10" t="n">
-        <v>900.9112611679752</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="U10" t="n">
-        <v>900.9112611679752</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="V10" t="n">
-        <v>900.9112611679752</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="W10" t="n">
-        <v>611.4940911310146</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="X10" t="n">
-        <v>383.5045402329973</v>
+        <v>846.4373785321145</v>
       </c>
       <c r="Y10" t="n">
-        <v>383.5045402329973</v>
+        <v>846.4373785321145</v>
       </c>
     </row>
     <row r="11">
@@ -5030,22 +5030,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.55866301478</v>
@@ -5054,13 +5054,13 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5118,7 +5118,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5127,19 +5127,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.50206557031</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424032</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>526.5658826424032</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>378.65278906001</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851784</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
@@ -5200,10 +5200,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5227,22 +5227,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138402</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.50206557031</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5261,13 +5261,13 @@
         <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
@@ -5276,7 +5276,7 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075802</v>
@@ -5294,7 +5294,7 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.667160263527</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,10 +5510,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
@@ -5525,10 +5525,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5546,16 +5546,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1859.536823237711</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356195</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>155.0763917523275</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>1694.625214721997</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1439.94072651611</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1150.52355647915</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>1150.52355647915</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>929.7309773356195</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="20">
@@ -5744,13 +5744,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5768,7 +5768,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>768.5380889459582</v>
+        <v>800.5007694647281</v>
       </c>
       <c r="C22" t="n">
-        <v>599.6019060180513</v>
+        <v>631.5645865368213</v>
       </c>
       <c r="D22" t="n">
-        <v>599.6019060180513</v>
+        <v>481.4479471244855</v>
       </c>
       <c r="E22" t="n">
-        <v>599.6019060180513</v>
+        <v>333.5348535420924</v>
       </c>
       <c r="F22" t="n">
-        <v>452.7119585201409</v>
+        <v>333.5348535420924</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854706</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W22" t="n">
-        <v>1398.968683817745</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X22" t="n">
-        <v>1170.979132919728</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y22" t="n">
-        <v>950.1865537761979</v>
+        <v>982.1492342949679</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5987,10 +5987,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.7084350851671</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C25" t="n">
-        <v>527.7722521572603</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D25" t="n">
-        <v>527.7722521572603</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E25" t="n">
-        <v>379.8591585748671</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F25" t="n">
-        <v>379.8591585748671</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>212.6630592897471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6206,25 +6206,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6364,10 +6364,10 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F28" t="n">
         <v>411.2214559580114</v>
@@ -6385,10 +6385,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2148.04349261611</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319328</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656822</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H31" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384018</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6637,31 +6637,31 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P31" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q31" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U31" t="n">
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
         <v>1084.076049400516</v>
@@ -6689,7 +6689,7 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,10 +6698,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6777,28 +6777,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6859,10 +6859,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6889,16 +6889,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7096,7 +7096,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L37" t="n">
         <v>898.2659412311323</v>
@@ -7108,10 +7108,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P37" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q37" t="n">
         <v>2639.297491717215</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,13 +7154,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7169,13 +7169,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.957531531932</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150029</v>
       </c>
       <c r="E40" t="n">
-        <v>533.581456494265</v>
+        <v>533.581456494266</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.221455958012</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345482</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,52 +7330,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547833</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518752</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150024</v>
+        <v>656.964603115002</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942651</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380727</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311322</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7588,7 +7588,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931273</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7637,25 +7637,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192508</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111707</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
         <v>2950.898526355937</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
         <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>312.2066704284449</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>63.64207105006807</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8529,25 +8529,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>6.233205181928369</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>360.5859288704237</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>286.8067967414779</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -9167,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9635,13 +9635,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
         <v>5.684341886080801e-13</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10358,7 +10358,7 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -22544,25 +22544,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>59.80020064836578</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22592,25 +22592,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>226.9337664127315</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>344.385217644017</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,16 +22705,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22768,10 +22768,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>103.1161092074294</v>
       </c>
       <c r="Y4" t="n">
-        <v>55.15389133589445</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>110.2232578818479</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23467,16 +23467,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>6.257951202385243</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>53.48834544997014</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.5487903941886</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,10 +23887,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>20.61870490125342</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>6.176967258618276</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,16 +24130,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>31.77834493961095</v>
+        <v>149.7636788678789</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>63.36835372228748</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>22.63678056686643</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>81152.27790359154</v>
+        <v>81152.27790359157</v>
       </c>
       <c r="C2" t="n">
         <v>102630.2212330354</v>
@@ -26335,25 +26335,25 @@
         <v>100893.3249612508</v>
       </c>
       <c r="J2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="K2" t="n">
-        <v>102630.2212330356</v>
+        <v>102630.2212330355</v>
       </c>
       <c r="L2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="M2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="N2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
       <c r="O2" t="n">
         <v>102630.2212330354</v>
       </c>
       <c r="P2" t="n">
-        <v>102630.2212330355</v>
+        <v>102630.2212330354</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808062</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>195850.9371862248</v>
+        <v>195850.9371862247</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="M3" t="n">
         <v>124208.5107080585</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363177</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,22 +26424,22 @@
         <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
-        <v>5677.536566682775</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="F4" t="n">
         <v>5677.536566682744</v>
       </c>
       <c r="G4" t="n">
-        <v>5677.536566682777</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="H4" t="n">
-        <v>5677.536566682745</v>
+        <v>5677.536566682757</v>
       </c>
       <c r="I4" t="n">
         <v>5677.536566682754</v>
       </c>
       <c r="J4" t="n">
-        <v>13668.39582977621</v>
+        <v>13668.39582977623</v>
       </c>
       <c r="K4" t="n">
         <v>13668.39582977621</v>
@@ -26448,16 +26448,16 @@
         <v>13668.39582977622</v>
       </c>
       <c r="M4" t="n">
+        <v>13668.39582977621</v>
+      </c>
+      <c r="N4" t="n">
         <v>13668.39582977623</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13668.39582977621</v>
       </c>
       <c r="O4" t="n">
         <v>13668.39582977621</v>
       </c>
       <c r="P4" t="n">
-        <v>13668.39582977622</v>
+        <v>13668.3958297762</v>
       </c>
     </row>
     <row r="5">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-703525.8716104693</v>
+        <v>-703955.4304770579</v>
       </c>
       <c r="C6" t="n">
         <v>-190151.2722934074</v>
@@ -26528,40 +26528,40 @@
         <v>-345955.0783872023</v>
       </c>
       <c r="E6" t="n">
-        <v>-776959.4328101452</v>
+        <v>-776994.1707355811</v>
       </c>
       <c r="F6" t="n">
-        <v>-5906.741429339047</v>
+        <v>-5941.479354774769</v>
       </c>
       <c r="G6" t="n">
-        <v>-5906.741429339105</v>
+        <v>-5941.479354774783</v>
       </c>
       <c r="H6" t="n">
-        <v>-5906.741429339061</v>
+        <v>-5941.479354774798</v>
       </c>
       <c r="I6" t="n">
-        <v>-5906.74142933909</v>
+        <v>-5941.479354774769</v>
       </c>
       <c r="J6" t="n">
-        <v>-210053.2276368808</v>
+        <v>-210053.2276368809</v>
       </c>
       <c r="K6" t="n">
-        <v>-14202.290450656</v>
+        <v>-14202.29045065613</v>
       </c>
       <c r="L6" t="n">
-        <v>-14202.29045065618</v>
+        <v>-14202.2904506562</v>
       </c>
       <c r="M6" t="n">
-        <v>-138410.8011587147</v>
+        <v>-138410.8011587146</v>
       </c>
       <c r="N6" t="n">
-        <v>-14202.29045065615</v>
+        <v>-14202.29045065623</v>
       </c>
       <c r="O6" t="n">
-        <v>-33630.00844428796</v>
+        <v>-33630.00844428793</v>
       </c>
       <c r="P6" t="n">
-        <v>-14202.29045065615</v>
+        <v>-14202.29045065616</v>
       </c>
     </row>
   </sheetData>
@@ -26707,16 +26707,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203971</v>
@@ -26725,7 +26725,7 @@
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
-        <v>774.4994000036085</v>
+        <v>774.4994000036087</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>305.4726911226418</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,7 +27591,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.300433266443072</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>210.9370728176445</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>231.4463778244789</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,13 +27783,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>233.3642391069105</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>150.419936754702</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>233.0532184555697</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>158.6939125064432</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>212.651863114966</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,16 +28011,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>2.979832223645417</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.9207765545704</v>
@@ -28059,7 +28059,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>53.92914380950205</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29290,7 +29290,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>339.9772972286976</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>403.8524967138027</v>
+        <v>368.6279838366847</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>320.9147064709964</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>340.4395077511227</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>338.1920576279222</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>303.4297552732306</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286971</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33023,28 +33023,28 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>340.4395077511235</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,13 +33269,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33497,19 +33497,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>150.7833302198383</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33521,7 +33521,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33901,7 +33901,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159425</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34135,7 +34135,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M41" t="n">
         <v>965.6463440175675</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K8" t="n">
         <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>452.9426864297107</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>259.9392557894442</v>
       </c>
       <c r="O8" t="n">
         <v>552.6880856233105</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>68.29072693268387</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L9" t="n">
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>647.0155045122269</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N9" t="n">
-        <v>561.2493042771557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
         <v>161.1235481502633</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>396.594299294305</v>
       </c>
       <c r="Q9" t="n">
         <v>233.0438950105733</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902966</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>197.8432633066793</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>272.5107846304694</v>
+        <v>237.2862717533515</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>189.5729943876631</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>196.0580237059039</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>160.8335108287862</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36355,13 +36355,13 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
         <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
         <v>735.3001107902948</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066788</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>197.843263306679</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,10 +36753,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -36771,7 +36771,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,13 +36917,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36990,10 +36990,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
         <v>450.5570744930848</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37145,19 +37145,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>23.94570355317166</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37169,7 +37169,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K37" t="n">
         <v>288.6172359016746</v>
@@ -37479,7 +37479,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q37" t="n">
         <v>144.686904791938</v>
@@ -37549,7 +37549,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
